--- a/Evalution/preds_rerun_new/_cache_data.xlsx
+++ b/Evalution/preds_rerun_new/_cache_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,17 +455,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53752.95488000003</v>
+        <v>21156.49535999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -475,11 +475,31 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26220.95360000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>84562.57535999996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53752.95488000003</v>
       </c>
     </row>
   </sheetData>

--- a/Evalution/preds_rerun_new/_cache_data.xlsx
+++ b/Evalution/preds_rerun_new/_cache_data.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,61 +531,231 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169679.519744</v>
+        <v>21156.49535999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53752.95488000003</v>
+        <v>42281.28768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84562.57535999996</v>
+        <v>28220.30131200001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53752.95488000003</v>
+        <v>26220.95360000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21156.49535999999</v>
+        <v>84484.292608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1311.04768</v>
+        <v>1261.19936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53752.95488000003</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53752.95488000003</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1763.704832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84484.292608</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84562.57535999996</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>396.816384</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42281.28768</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21121.073152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1343.823872</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10488.38144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5255.987199999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>169679.519744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>492.17536</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1344.274432</v>
       </c>
     </row>
   </sheetData>

--- a/Evalution/preds_rerun_new/_cache_data.xlsx
+++ b/Evalution/preds_rerun_new/_cache_data.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,101 +531,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21156.49535999999</v>
+        <v>2624.061439999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc750_ea1.002_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42281.28768</v>
+        <v>98.43507200000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28220.30131200001</v>
+        <v>1343.823872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.002_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26220.95360000002</v>
+        <v>10488.38144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84484.292608</v>
+        <v>42281.28768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1261.19936</v>
+        <v>5255.987199999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53752.95488000003</v>
+        <v>10491.00288000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53752.95488000003</v>
+        <v>396.816384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1763.704832</v>
+        <v>10488.38144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1344.274432</v>
       </c>
     </row>
     <row r="12">
@@ -641,121 +641,201 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84562.57535999996</v>
+        <v>53752.95488000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_sl3_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.816384</v>
+        <v>21286.223872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42281.28768</v>
+        <v>2624.061439999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.073152</v>
+        <v>42281.28768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1343.823872</v>
+        <v>28220.30131200001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10488.38144</v>
+        <v>84484.292608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5255.987199999999</v>
+        <v>1763.704832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>21121.073152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169679.519744</v>
+        <v>1261.19936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>26220.95360000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>492.17536</v>
+        <v>169679.519744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1344.274432</v>
+        <v>42281.28768</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_new_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>84484.292608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>98.43507200000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>492.17536</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>84562.57535999996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10488.38144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21156.49535999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>53752.95488000003</v>
       </c>
     </row>
   </sheetData>
